--- a/Excel/Airpositivecreditcard.xlsx
+++ b/Excel/Airpositivecreditcard.xlsx
@@ -450,7 +450,7 @@
     <t>Nov</t>
   </si>
   <si>
-    <t>9210291218</t>
+    <t>9210291265</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CQ2" sqref="CQ2:CS2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airpositivecreditcard.xlsx
+++ b/Excel/Airpositivecreditcard.xlsx
@@ -462,7 +462,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>9210291310</t>
+    <t>9310291313</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,6 +561,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,7 +861,7 @@
   <dimension ref="A1:CS2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1305,7 +1308,7 @@
       <c r="S2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="14" t="s">
         <v>148</v>
       </c>
       <c r="U2" s="11" t="s">

--- a/Excel/Airpositivecreditcard.xlsx
+++ b/Excel/Airpositivecreditcard.xlsx
@@ -462,7 +462,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>9310291313</t>
+    <t>9310291343</t>
   </si>
 </sst>
 </file>
@@ -861,7 +861,7 @@
   <dimension ref="A1:CS2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
